--- a/EE-TL-001-01_Derating-Worksheet.xlsx
+++ b/EE-TL-001-01_Derating-Worksheet.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnp\Documents\Projects\resume\portfolio\Derating\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB04691-09CF-4BF1-AA81-6A5CDA1F6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D4F60-2CA7-413E-8F3D-A192AD228750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{299E0CBD-E00B-402E-B580-70C27CFB79F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{299E0CBD-E00B-402E-B580-70C27CFB79F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -2018,6 +2013,45 @@
     <xf numFmtId="0" fontId="15" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2030,44 +2064,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2085,15 +2089,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F54232-56D0-49F7-BB32-02027D506FDC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,8 +2822,6 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -2860,35 +2853,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
     </row>
     <row r="3" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3049,15 +3042,15 @@
       <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3142,15 +3135,15 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -3197,15 +3190,15 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -3252,15 +3245,15 @@
       <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
     </row>
     <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3395,15 +3388,15 @@
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -3450,15 +3443,15 @@
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
     </row>
     <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -3524,15 +3517,15 @@
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="147"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="146"/>
     </row>
     <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="130" t="s">
@@ -3583,15 +3576,15 @@
       <c r="I40" s="128"/>
     </row>
     <row r="41" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="148"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="146"/>
     </row>
     <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -3638,15 +3631,15 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
     </row>
     <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -3807,15 +3800,15 @@
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="146" t="s">
+      <c r="A53" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="147"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="147"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
     </row>
     <row r="54" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -3841,7 +3834,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="142" t="s">
+      <c r="A55" s="155" t="s">
         <v>265</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -3862,7 +3855,7 @@
       <c r="G55" s="25"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="143"/>
+      <c r="A56" s="156"/>
       <c r="B56" s="19" t="s">
         <v>218</v>
       </c>
@@ -3881,7 +3874,7 @@
       <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="144"/>
+      <c r="A57" s="157"/>
       <c r="B57" s="19" t="s">
         <v>217</v>
       </c>
@@ -3900,15 +3893,15 @@
       <c r="G57" s="25"/>
     </row>
     <row r="58" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
     </row>
     <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -3934,7 +3927,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="142" t="s">
+      <c r="A60" s="155" t="s">
         <v>268</v>
       </c>
       <c r="B60" s="19" t="s">
@@ -3955,7 +3948,7 @@
       <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="143"/>
+      <c r="A61" s="156"/>
       <c r="B61" s="19" t="s">
         <v>143</v>
       </c>
@@ -3974,7 +3967,7 @@
       <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="143"/>
+      <c r="A62" s="156"/>
       <c r="B62" s="19" t="s">
         <v>144</v>
       </c>
@@ -3993,7 +3986,7 @@
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="144"/>
+      <c r="A63" s="157"/>
       <c r="B63" s="19" t="s">
         <v>145</v>
       </c>
@@ -4012,15 +4005,15 @@
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="146" t="s">
+      <c r="A64" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
@@ -4067,15 +4060,15 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="146" t="s">
+      <c r="A67" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="B67" s="147"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="147"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
     </row>
     <row r="68" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
@@ -4101,7 +4094,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="142" t="s">
+      <c r="A69" s="155" t="s">
         <v>267</v>
       </c>
       <c r="B69" s="19" t="s">
@@ -4122,7 +4115,7 @@
       <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="143"/>
+      <c r="A70" s="156"/>
       <c r="B70" s="19" t="s">
         <v>73</v>
       </c>
@@ -4141,7 +4134,7 @@
       <c r="G70" s="28"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="143"/>
+      <c r="A71" s="156"/>
       <c r="B71" s="19" t="s">
         <v>74</v>
       </c>
@@ -4160,7 +4153,7 @@
       <c r="G71" s="27"/>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="143"/>
+      <c r="A72" s="156"/>
       <c r="B72" s="19" t="s">
         <v>253</v>
       </c>
@@ -4179,7 +4172,7 @@
       <c r="G72" s="27"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="144"/>
+      <c r="A73" s="157"/>
       <c r="B73" s="19" t="s">
         <v>75</v>
       </c>
@@ -4198,15 +4191,15 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="146" t="s">
+      <c r="A74" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="147"/>
-      <c r="C74" s="147"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="147"/>
-      <c r="F74" s="147"/>
-      <c r="G74" s="147"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="145"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="145"/>
+      <c r="G74" s="145"/>
     </row>
     <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
@@ -4253,15 +4246,15 @@
       <c r="G76" s="118"/>
     </row>
     <row r="77" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="146" t="s">
+      <c r="A77" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="147"/>
-      <c r="C77" s="147"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="147"/>
-      <c r="F77" s="147"/>
-      <c r="G77" s="147"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
     </row>
     <row r="78" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
@@ -4308,15 +4301,15 @@
       <c r="G79" s="100"/>
     </row>
     <row r="80" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="146" t="s">
+      <c r="A80" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="147"/>
-      <c r="C80" s="147"/>
-      <c r="D80" s="147"/>
-      <c r="E80" s="147"/>
-      <c r="F80" s="147"/>
-      <c r="G80" s="147"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="145"/>
+      <c r="G80" s="145"/>
     </row>
     <row r="81" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
@@ -4342,7 +4335,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="155" t="s">
         <v>269</v>
       </c>
       <c r="B82" s="19" t="s">
@@ -4363,7 +4356,7 @@
       <c r="G82" s="109"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
+      <c r="A83" s="156"/>
       <c r="B83" s="19" t="s">
         <v>116</v>
       </c>
@@ -4382,7 +4375,7 @@
       <c r="G83" s="109"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="143"/>
+      <c r="A84" s="156"/>
       <c r="B84" s="19" t="s">
         <v>78</v>
       </c>
@@ -4401,7 +4394,7 @@
       <c r="G84" s="108"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="143"/>
+      <c r="A85" s="156"/>
       <c r="B85" s="19" t="s">
         <v>114</v>
       </c>
@@ -4420,7 +4413,7 @@
       <c r="G85" s="107"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="143"/>
+      <c r="A86" s="156"/>
       <c r="B86" s="18" t="s">
         <v>115</v>
       </c>
@@ -4439,7 +4432,7 @@
       <c r="G86" s="107"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="144"/>
+      <c r="A87" s="157"/>
       <c r="B87" s="18" t="s">
         <v>3</v>
       </c>
@@ -4458,15 +4451,15 @@
       <c r="G87" s="107"/>
     </row>
     <row r="88" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="146" t="s">
+      <c r="A88" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="B88" s="147"/>
-      <c r="C88" s="147"/>
-      <c r="D88" s="147"/>
-      <c r="E88" s="147"/>
-      <c r="F88" s="147"/>
-      <c r="G88" s="147"/>
+      <c r="B88" s="145"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="145"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="145"/>
     </row>
     <row r="89" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
@@ -4492,7 +4485,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="142" t="s">
+      <c r="A90" s="155" t="s">
         <v>276</v>
       </c>
       <c r="B90" s="19" t="s">
@@ -4513,7 +4506,7 @@
       <c r="G90" s="19"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="143"/>
+      <c r="A91" s="156"/>
       <c r="B91" s="19" t="s">
         <v>80</v>
       </c>
@@ -4534,7 +4527,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="144"/>
+      <c r="A92" s="157"/>
       <c r="B92" s="19" t="s">
         <v>98</v>
       </c>
@@ -4553,15 +4546,15 @@
       <c r="G92" s="120"/>
     </row>
     <row r="93" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="146" t="s">
+      <c r="A93" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="147"/>
-      <c r="C93" s="147"/>
-      <c r="D93" s="147"/>
-      <c r="E93" s="147"/>
-      <c r="F93" s="147"/>
-      <c r="G93" s="147"/>
+      <c r="B93" s="145"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="145"/>
+      <c r="E93" s="145"/>
+      <c r="F93" s="145"/>
+      <c r="G93" s="145"/>
     </row>
     <row r="94" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
@@ -4608,15 +4601,15 @@
       <c r="G95" s="110"/>
     </row>
     <row r="96" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="146" t="s">
+      <c r="A96" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="147"/>
-      <c r="C96" s="147"/>
-      <c r="D96" s="147"/>
-      <c r="E96" s="147"/>
-      <c r="F96" s="147"/>
-      <c r="G96" s="147"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="145"/>
+      <c r="D96" s="145"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="145"/>
+      <c r="G96" s="145"/>
     </row>
     <row r="97" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
@@ -4642,7 +4635,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="142" t="s">
+      <c r="A98" s="155" t="s">
         <v>272</v>
       </c>
       <c r="B98" s="19" t="s">
@@ -4663,7 +4656,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="143"/>
+      <c r="A99" s="156"/>
       <c r="B99" s="19" t="s">
         <v>84</v>
       </c>
@@ -4682,7 +4675,7 @@
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="145"/>
+      <c r="A100" s="158"/>
       <c r="B100" s="19" t="s">
         <v>271</v>
       </c>
@@ -4702,6 +4695,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A96:G96"/>
     <mergeCell ref="A88:G88"/>
@@ -4718,22 +4727,6 @@
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A90:A92"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:G1">
     <cfRule type="beginsWith" dxfId="43" priority="1" operator="beginsWith" text="NoK">
@@ -5040,100 +5033,100 @@
     </row>
     <row r="14" spans="1:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="148"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="146"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="165" t="s">
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="167"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="161"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="159" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="159" t="s">
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="159" t="s">
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="162" t="s">
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="160" t="s">
+      <c r="R17" s="166"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="167"/>
+      <c r="U17" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="161"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="164"/>
     </row>
     <row r="18" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
@@ -5336,100 +5329,100 @@
       <c r="X21" s="43"/>
     </row>
     <row r="22" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="148"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="146"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="165" t="s">
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="167"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="161"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="159" t="s">
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="159" t="s">
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="159" t="s">
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="162" t="s">
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="160" t="s">
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="161"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="164"/>
     </row>
     <row r="25" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
@@ -5589,100 +5582,100 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="148"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="146"/>
     </row>
     <row r="30" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="165" t="s">
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="167"/>
+      <c r="R30" s="160"/>
+      <c r="S30" s="160"/>
+      <c r="T30" s="160"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="160"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="161"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="159" t="s">
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="159" t="s">
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="159" t="s">
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="162" t="s">
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="164"/>
-      <c r="U31" s="160" t="s">
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V31" s="160"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="161"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="164"/>
     </row>
     <row r="32" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
@@ -5840,100 +5833,100 @@
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="148"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="146"/>
     </row>
     <row r="37" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="165" t="s">
+      <c r="A37" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="166"/>
-      <c r="O37" s="166"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="165" t="s">
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R37" s="166"/>
-      <c r="S37" s="166"/>
-      <c r="T37" s="166"/>
-      <c r="U37" s="166"/>
-      <c r="V37" s="166"/>
-      <c r="W37" s="166"/>
-      <c r="X37" s="167"/>
+      <c r="R37" s="160"/>
+      <c r="S37" s="160"/>
+      <c r="T37" s="160"/>
+      <c r="U37" s="160"/>
+      <c r="V37" s="160"/>
+      <c r="W37" s="160"/>
+      <c r="X37" s="161"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="159" t="s">
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="159" t="s">
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="159" t="s">
+      <c r="J38" s="163"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="N38" s="160"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="162" t="s">
+      <c r="N38" s="163"/>
+      <c r="O38" s="163"/>
+      <c r="P38" s="163"/>
+      <c r="Q38" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R38" s="163"/>
-      <c r="S38" s="163"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="160" t="s">
+      <c r="R38" s="166"/>
+      <c r="S38" s="166"/>
+      <c r="T38" s="167"/>
+      <c r="U38" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-      <c r="X38" s="161"/>
+      <c r="V38" s="163"/>
+      <c r="W38" s="163"/>
+      <c r="X38" s="164"/>
     </row>
     <row r="39" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
@@ -6089,100 +6082,100 @@
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="148"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="145"/>
+      <c r="P43" s="145"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="145"/>
+      <c r="S43" s="145"/>
+      <c r="T43" s="145"/>
+      <c r="U43" s="145"/>
+      <c r="V43" s="145"/>
+      <c r="W43" s="145"/>
+      <c r="X43" s="146"/>
     </row>
     <row r="44" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="165" t="s">
+      <c r="A44" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="166"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="166"/>
-      <c r="N44" s="166"/>
-      <c r="O44" s="166"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="165" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R44" s="166"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="166"/>
-      <c r="W44" s="166"/>
-      <c r="X44" s="167"/>
+      <c r="R44" s="160"/>
+      <c r="S44" s="160"/>
+      <c r="T44" s="160"/>
+      <c r="U44" s="160"/>
+      <c r="V44" s="160"/>
+      <c r="W44" s="160"/>
+      <c r="X44" s="161"/>
     </row>
     <row r="45" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="159" t="s">
+      <c r="A45" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="160"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="159" t="s">
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="159" t="s">
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="160"/>
-      <c r="K45" s="160"/>
-      <c r="L45" s="161"/>
-      <c r="M45" s="159" t="s">
+      <c r="J45" s="163"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="N45" s="160"/>
-      <c r="O45" s="160"/>
-      <c r="P45" s="160"/>
-      <c r="Q45" s="162" t="s">
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="163"/>
+      <c r="Q45" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R45" s="163"/>
-      <c r="S45" s="163"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="160" t="s">
+      <c r="R45" s="166"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="167"/>
+      <c r="U45" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V45" s="160"/>
-      <c r="W45" s="160"/>
-      <c r="X45" s="161"/>
+      <c r="V45" s="163"/>
+      <c r="W45" s="163"/>
+      <c r="X45" s="164"/>
     </row>
     <row r="46" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
@@ -6342,100 +6335,100 @@
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="146" t="s">
+      <c r="A50" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="148"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="145"/>
+      <c r="S50" s="145"/>
+      <c r="T50" s="145"/>
+      <c r="U50" s="145"/>
+      <c r="V50" s="145"/>
+      <c r="W50" s="145"/>
+      <c r="X50" s="146"/>
     </row>
     <row r="51" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="165" t="s">
+      <c r="A51" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="166"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="166"/>
-      <c r="K51" s="166"/>
-      <c r="L51" s="166"/>
-      <c r="M51" s="166"/>
-      <c r="N51" s="166"/>
-      <c r="O51" s="166"/>
-      <c r="P51" s="167"/>
-      <c r="Q51" s="165" t="s">
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160"/>
+      <c r="N51" s="160"/>
+      <c r="O51" s="160"/>
+      <c r="P51" s="161"/>
+      <c r="Q51" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R51" s="166"/>
-      <c r="S51" s="166"/>
-      <c r="T51" s="166"/>
-      <c r="U51" s="166"/>
-      <c r="V51" s="166"/>
-      <c r="W51" s="166"/>
-      <c r="X51" s="167"/>
+      <c r="R51" s="160"/>
+      <c r="S51" s="160"/>
+      <c r="T51" s="160"/>
+      <c r="U51" s="160"/>
+      <c r="V51" s="160"/>
+      <c r="W51" s="160"/>
+      <c r="X51" s="161"/>
     </row>
     <row r="52" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="159" t="s">
+      <c r="A52" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="160"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="159" t="s">
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="160"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="159" t="s">
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="161"/>
-      <c r="M52" s="160" t="s">
+      <c r="J52" s="163"/>
+      <c r="K52" s="163"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N52" s="160"/>
-      <c r="O52" s="160"/>
-      <c r="P52" s="160"/>
-      <c r="Q52" s="162" t="s">
+      <c r="N52" s="163"/>
+      <c r="O52" s="163"/>
+      <c r="P52" s="163"/>
+      <c r="Q52" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R52" s="163"/>
-      <c r="S52" s="163"/>
-      <c r="T52" s="164"/>
-      <c r="U52" s="160" t="s">
+      <c r="R52" s="166"/>
+      <c r="S52" s="166"/>
+      <c r="T52" s="167"/>
+      <c r="U52" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V52" s="160"/>
-      <c r="W52" s="160"/>
-      <c r="X52" s="161"/>
+      <c r="V52" s="163"/>
+      <c r="W52" s="163"/>
+      <c r="X52" s="164"/>
     </row>
     <row r="53" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
@@ -6595,100 +6588,100 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="144" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="147"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147"/>
-      <c r="N57" s="147"/>
-      <c r="O57" s="147"/>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="147"/>
-      <c r="S57" s="147"/>
-      <c r="T57" s="147"/>
-      <c r="U57" s="147"/>
-      <c r="V57" s="147"/>
-      <c r="W57" s="147"/>
-      <c r="X57" s="148"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
+      <c r="U57" s="145"/>
+      <c r="V57" s="145"/>
+      <c r="W57" s="145"/>
+      <c r="X57" s="146"/>
     </row>
     <row r="58" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="165" t="s">
+      <c r="A58" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="166"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="166"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="166"/>
-      <c r="J58" s="166"/>
-      <c r="K58" s="166"/>
-      <c r="L58" s="166"/>
-      <c r="M58" s="166"/>
-      <c r="N58" s="166"/>
-      <c r="O58" s="166"/>
-      <c r="P58" s="167"/>
-      <c r="Q58" s="165" t="s">
+      <c r="B58" s="160"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="160"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="160"/>
+      <c r="L58" s="160"/>
+      <c r="M58" s="160"/>
+      <c r="N58" s="160"/>
+      <c r="O58" s="160"/>
+      <c r="P58" s="161"/>
+      <c r="Q58" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R58" s="166"/>
-      <c r="S58" s="166"/>
-      <c r="T58" s="166"/>
-      <c r="U58" s="166"/>
-      <c r="V58" s="166"/>
-      <c r="W58" s="166"/>
-      <c r="X58" s="167"/>
+      <c r="R58" s="160"/>
+      <c r="S58" s="160"/>
+      <c r="T58" s="160"/>
+      <c r="U58" s="160"/>
+      <c r="V58" s="160"/>
+      <c r="W58" s="160"/>
+      <c r="X58" s="161"/>
     </row>
     <row r="59" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="159" t="s">
+      <c r="A59" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="160"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="159" t="s">
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="160"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="161"/>
-      <c r="I59" s="159" t="s">
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="161"/>
-      <c r="M59" s="160" t="s">
+      <c r="J59" s="163"/>
+      <c r="K59" s="163"/>
+      <c r="L59" s="164"/>
+      <c r="M59" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N59" s="160"/>
-      <c r="O59" s="160"/>
-      <c r="P59" s="160"/>
-      <c r="Q59" s="162" t="s">
+      <c r="N59" s="163"/>
+      <c r="O59" s="163"/>
+      <c r="P59" s="163"/>
+      <c r="Q59" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R59" s="163"/>
-      <c r="S59" s="163"/>
-      <c r="T59" s="164"/>
-      <c r="U59" s="160" t="s">
+      <c r="R59" s="166"/>
+      <c r="S59" s="166"/>
+      <c r="T59" s="167"/>
+      <c r="U59" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V59" s="160"/>
-      <c r="W59" s="160"/>
-      <c r="X59" s="161"/>
+      <c r="V59" s="163"/>
+      <c r="W59" s="163"/>
+      <c r="X59" s="164"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
@@ -6889,100 +6882,100 @@
       <c r="X63" s="43"/>
     </row>
     <row r="64" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="146" t="s">
+      <c r="A64" s="144" t="s">
         <v>278</v>
       </c>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="147"/>
-      <c r="O64" s="147"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="148"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="145"/>
+      <c r="L64" s="145"/>
+      <c r="M64" s="145"/>
+      <c r="N64" s="145"/>
+      <c r="O64" s="145"/>
+      <c r="P64" s="145"/>
+      <c r="Q64" s="145"/>
+      <c r="R64" s="145"/>
+      <c r="S64" s="145"/>
+      <c r="T64" s="145"/>
+      <c r="U64" s="145"/>
+      <c r="V64" s="145"/>
+      <c r="W64" s="145"/>
+      <c r="X64" s="146"/>
     </row>
     <row r="65" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="165" t="s">
+      <c r="A65" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="166"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="166"/>
-      <c r="I65" s="166"/>
-      <c r="J65" s="166"/>
-      <c r="K65" s="166"/>
-      <c r="L65" s="166"/>
-      <c r="M65" s="166"/>
-      <c r="N65" s="166"/>
-      <c r="O65" s="166"/>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="165" t="s">
+      <c r="B65" s="160"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="160"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="160"/>
+      <c r="O65" s="160"/>
+      <c r="P65" s="161"/>
+      <c r="Q65" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R65" s="166"/>
-      <c r="S65" s="166"/>
-      <c r="T65" s="166"/>
-      <c r="U65" s="166"/>
-      <c r="V65" s="166"/>
-      <c r="W65" s="166"/>
-      <c r="X65" s="167"/>
+      <c r="R65" s="160"/>
+      <c r="S65" s="160"/>
+      <c r="T65" s="160"/>
+      <c r="U65" s="160"/>
+      <c r="V65" s="160"/>
+      <c r="W65" s="160"/>
+      <c r="X65" s="161"/>
     </row>
     <row r="66" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="159" t="s">
+      <c r="A66" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="160"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="159" t="s">
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="160"/>
-      <c r="G66" s="160"/>
-      <c r="H66" s="161"/>
-      <c r="I66" s="159" t="s">
+      <c r="F66" s="163"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="160"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="161"/>
-      <c r="M66" s="160" t="s">
+      <c r="J66" s="163"/>
+      <c r="K66" s="163"/>
+      <c r="L66" s="164"/>
+      <c r="M66" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N66" s="160"/>
-      <c r="O66" s="160"/>
-      <c r="P66" s="160"/>
-      <c r="Q66" s="162" t="s">
+      <c r="N66" s="163"/>
+      <c r="O66" s="163"/>
+      <c r="P66" s="163"/>
+      <c r="Q66" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R66" s="163"/>
-      <c r="S66" s="163"/>
-      <c r="T66" s="164"/>
-      <c r="U66" s="160" t="s">
+      <c r="R66" s="166"/>
+      <c r="S66" s="166"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V66" s="160"/>
-      <c r="W66" s="160"/>
-      <c r="X66" s="161"/>
+      <c r="V66" s="163"/>
+      <c r="W66" s="163"/>
+      <c r="X66" s="164"/>
     </row>
     <row r="67" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="62" t="s">
@@ -7183,100 +7176,100 @@
       <c r="X70" s="43"/>
     </row>
     <row r="71" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="147"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="147"/>
-      <c r="O71" s="147"/>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="147"/>
-      <c r="S71" s="147"/>
-      <c r="T71" s="147"/>
-      <c r="U71" s="147"/>
-      <c r="V71" s="147"/>
-      <c r="W71" s="147"/>
-      <c r="X71" s="148"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="145"/>
+      <c r="G71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="145"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="145"/>
+      <c r="P71" s="145"/>
+      <c r="Q71" s="145"/>
+      <c r="R71" s="145"/>
+      <c r="S71" s="145"/>
+      <c r="T71" s="145"/>
+      <c r="U71" s="145"/>
+      <c r="V71" s="145"/>
+      <c r="W71" s="145"/>
+      <c r="X71" s="146"/>
     </row>
     <row r="72" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="165" t="s">
+      <c r="A72" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="166"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="166"/>
-      <c r="E72" s="166"/>
-      <c r="F72" s="166"/>
-      <c r="G72" s="166"/>
-      <c r="H72" s="166"/>
-      <c r="I72" s="166"/>
-      <c r="J72" s="166"/>
-      <c r="K72" s="166"/>
-      <c r="L72" s="166"/>
-      <c r="M72" s="166"/>
-      <c r="N72" s="166"/>
-      <c r="O72" s="166"/>
-      <c r="P72" s="167"/>
-      <c r="Q72" s="165" t="s">
+      <c r="B72" s="160"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="160"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="161"/>
+      <c r="Q72" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R72" s="166"/>
-      <c r="S72" s="166"/>
-      <c r="T72" s="166"/>
-      <c r="U72" s="166"/>
-      <c r="V72" s="166"/>
-      <c r="W72" s="166"/>
-      <c r="X72" s="167"/>
+      <c r="R72" s="160"/>
+      <c r="S72" s="160"/>
+      <c r="T72" s="160"/>
+      <c r="U72" s="160"/>
+      <c r="V72" s="160"/>
+      <c r="W72" s="160"/>
+      <c r="X72" s="161"/>
     </row>
     <row r="73" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="159" t="s">
+      <c r="A73" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="160"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="159" t="s">
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="160"/>
-      <c r="G73" s="160"/>
-      <c r="H73" s="161"/>
-      <c r="I73" s="159" t="s">
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="164"/>
+      <c r="I73" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J73" s="160"/>
-      <c r="K73" s="160"/>
-      <c r="L73" s="161"/>
-      <c r="M73" s="160" t="s">
+      <c r="J73" s="163"/>
+      <c r="K73" s="163"/>
+      <c r="L73" s="164"/>
+      <c r="M73" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N73" s="160"/>
-      <c r="O73" s="160"/>
-      <c r="P73" s="160"/>
-      <c r="Q73" s="162" t="s">
+      <c r="N73" s="163"/>
+      <c r="O73" s="163"/>
+      <c r="P73" s="163"/>
+      <c r="Q73" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R73" s="163"/>
-      <c r="S73" s="163"/>
-      <c r="T73" s="164"/>
-      <c r="U73" s="160" t="s">
+      <c r="R73" s="166"/>
+      <c r="S73" s="166"/>
+      <c r="T73" s="167"/>
+      <c r="U73" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V73" s="160"/>
-      <c r="W73" s="160"/>
-      <c r="X73" s="161"/>
+      <c r="V73" s="163"/>
+      <c r="W73" s="163"/>
+      <c r="X73" s="164"/>
     </row>
     <row r="74" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="s">
@@ -7478,100 +7471,100 @@
       <c r="X77" s="43"/>
     </row>
     <row r="78" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="B78" s="147"/>
-      <c r="C78" s="147"/>
-      <c r="D78" s="147"/>
-      <c r="E78" s="147"/>
-      <c r="F78" s="147"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="147"/>
-      <c r="I78" s="147"/>
-      <c r="J78" s="147"/>
-      <c r="K78" s="147"/>
-      <c r="L78" s="147"/>
-      <c r="M78" s="147"/>
-      <c r="N78" s="147"/>
-      <c r="O78" s="147"/>
-      <c r="P78" s="147"/>
-      <c r="Q78" s="147"/>
-      <c r="R78" s="147"/>
-      <c r="S78" s="147"/>
-      <c r="T78" s="147"/>
-      <c r="U78" s="147"/>
-      <c r="V78" s="147"/>
-      <c r="W78" s="147"/>
-      <c r="X78" s="148"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="145"/>
+      <c r="K78" s="145"/>
+      <c r="L78" s="145"/>
+      <c r="M78" s="145"/>
+      <c r="N78" s="145"/>
+      <c r="O78" s="145"/>
+      <c r="P78" s="145"/>
+      <c r="Q78" s="145"/>
+      <c r="R78" s="145"/>
+      <c r="S78" s="145"/>
+      <c r="T78" s="145"/>
+      <c r="U78" s="145"/>
+      <c r="V78" s="145"/>
+      <c r="W78" s="145"/>
+      <c r="X78" s="146"/>
     </row>
     <row r="79" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="165" t="s">
+      <c r="A79" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="166"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
-      <c r="E79" s="166"/>
-      <c r="F79" s="166"/>
-      <c r="G79" s="166"/>
-      <c r="H79" s="166"/>
-      <c r="I79" s="166"/>
-      <c r="J79" s="166"/>
-      <c r="K79" s="166"/>
-      <c r="L79" s="166"/>
-      <c r="M79" s="166"/>
-      <c r="N79" s="166"/>
-      <c r="O79" s="166"/>
-      <c r="P79" s="167"/>
-      <c r="Q79" s="165" t="s">
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="160"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="160"/>
+      <c r="M79" s="160"/>
+      <c r="N79" s="160"/>
+      <c r="O79" s="160"/>
+      <c r="P79" s="161"/>
+      <c r="Q79" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R79" s="166"/>
-      <c r="S79" s="166"/>
-      <c r="T79" s="166"/>
-      <c r="U79" s="166"/>
-      <c r="V79" s="166"/>
-      <c r="W79" s="166"/>
-      <c r="X79" s="167"/>
+      <c r="R79" s="160"/>
+      <c r="S79" s="160"/>
+      <c r="T79" s="160"/>
+      <c r="U79" s="160"/>
+      <c r="V79" s="160"/>
+      <c r="W79" s="160"/>
+      <c r="X79" s="161"/>
     </row>
     <row r="80" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="159" t="s">
+      <c r="A80" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="160"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="161"/>
-      <c r="E80" s="159" t="s">
+      <c r="B80" s="163"/>
+      <c r="C80" s="163"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="160"/>
-      <c r="G80" s="160"/>
-      <c r="H80" s="161"/>
-      <c r="I80" s="159" t="s">
+      <c r="F80" s="163"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="164"/>
+      <c r="I80" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160"/>
-      <c r="L80" s="161"/>
-      <c r="M80" s="160" t="s">
+      <c r="J80" s="163"/>
+      <c r="K80" s="163"/>
+      <c r="L80" s="164"/>
+      <c r="M80" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N80" s="160"/>
-      <c r="O80" s="160"/>
-      <c r="P80" s="160"/>
-      <c r="Q80" s="162" t="s">
+      <c r="N80" s="163"/>
+      <c r="O80" s="163"/>
+      <c r="P80" s="163"/>
+      <c r="Q80" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R80" s="163"/>
-      <c r="S80" s="163"/>
-      <c r="T80" s="164"/>
-      <c r="U80" s="160" t="s">
+      <c r="R80" s="166"/>
+      <c r="S80" s="166"/>
+      <c r="T80" s="167"/>
+      <c r="U80" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V80" s="160"/>
-      <c r="W80" s="160"/>
-      <c r="X80" s="161"/>
+      <c r="V80" s="163"/>
+      <c r="W80" s="163"/>
+      <c r="X80" s="164"/>
     </row>
     <row r="81" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="62" t="s">
@@ -7770,100 +7763,100 @@
       <c r="X84" s="43"/>
     </row>
     <row r="85" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="146" t="s">
+      <c r="A85" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="147"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="147"/>
-      <c r="K85" s="147"/>
-      <c r="L85" s="147"/>
-      <c r="M85" s="147"/>
-      <c r="N85" s="147"/>
-      <c r="O85" s="147"/>
-      <c r="P85" s="147"/>
-      <c r="Q85" s="147"/>
-      <c r="R85" s="147"/>
-      <c r="S85" s="147"/>
-      <c r="T85" s="147"/>
-      <c r="U85" s="147"/>
-      <c r="V85" s="147"/>
-      <c r="W85" s="147"/>
-      <c r="X85" s="148"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="145"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="145"/>
+      <c r="L85" s="145"/>
+      <c r="M85" s="145"/>
+      <c r="N85" s="145"/>
+      <c r="O85" s="145"/>
+      <c r="P85" s="145"/>
+      <c r="Q85" s="145"/>
+      <c r="R85" s="145"/>
+      <c r="S85" s="145"/>
+      <c r="T85" s="145"/>
+      <c r="U85" s="145"/>
+      <c r="V85" s="145"/>
+      <c r="W85" s="145"/>
+      <c r="X85" s="146"/>
     </row>
     <row r="86" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="165" t="s">
+      <c r="A86" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="166"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="166"/>
-      <c r="E86" s="166"/>
-      <c r="F86" s="166"/>
-      <c r="G86" s="166"/>
-      <c r="H86" s="166"/>
-      <c r="I86" s="166"/>
-      <c r="J86" s="166"/>
-      <c r="K86" s="166"/>
-      <c r="L86" s="166"/>
-      <c r="M86" s="166"/>
-      <c r="N86" s="166"/>
-      <c r="O86" s="166"/>
-      <c r="P86" s="167"/>
-      <c r="Q86" s="165" t="s">
+      <c r="B86" s="160"/>
+      <c r="C86" s="160"/>
+      <c r="D86" s="160"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="160"/>
+      <c r="G86" s="160"/>
+      <c r="H86" s="160"/>
+      <c r="I86" s="160"/>
+      <c r="J86" s="160"/>
+      <c r="K86" s="160"/>
+      <c r="L86" s="160"/>
+      <c r="M86" s="160"/>
+      <c r="N86" s="160"/>
+      <c r="O86" s="160"/>
+      <c r="P86" s="161"/>
+      <c r="Q86" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R86" s="166"/>
-      <c r="S86" s="166"/>
-      <c r="T86" s="166"/>
-      <c r="U86" s="166"/>
-      <c r="V86" s="166"/>
-      <c r="W86" s="166"/>
-      <c r="X86" s="167"/>
+      <c r="R86" s="160"/>
+      <c r="S86" s="160"/>
+      <c r="T86" s="160"/>
+      <c r="U86" s="160"/>
+      <c r="V86" s="160"/>
+      <c r="W86" s="160"/>
+      <c r="X86" s="161"/>
     </row>
     <row r="87" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="159" t="s">
+      <c r="A87" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="160"/>
-      <c r="C87" s="160"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="159" t="s">
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F87" s="160"/>
-      <c r="G87" s="160"/>
-      <c r="H87" s="161"/>
-      <c r="I87" s="159" t="s">
+      <c r="F87" s="163"/>
+      <c r="G87" s="163"/>
+      <c r="H87" s="164"/>
+      <c r="I87" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J87" s="160"/>
-      <c r="K87" s="160"/>
-      <c r="L87" s="161"/>
-      <c r="M87" s="160" t="s">
+      <c r="J87" s="163"/>
+      <c r="K87" s="163"/>
+      <c r="L87" s="164"/>
+      <c r="M87" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N87" s="160"/>
-      <c r="O87" s="160"/>
-      <c r="P87" s="160"/>
-      <c r="Q87" s="162" t="s">
+      <c r="N87" s="163"/>
+      <c r="O87" s="163"/>
+      <c r="P87" s="163"/>
+      <c r="Q87" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R87" s="163"/>
-      <c r="S87" s="163"/>
-      <c r="T87" s="164"/>
-      <c r="U87" s="160" t="s">
+      <c r="R87" s="166"/>
+      <c r="S87" s="166"/>
+      <c r="T87" s="167"/>
+      <c r="U87" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V87" s="160"/>
-      <c r="W87" s="160"/>
-      <c r="X87" s="161"/>
+      <c r="V87" s="163"/>
+      <c r="W87" s="163"/>
+      <c r="X87" s="164"/>
     </row>
     <row r="88" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="62" t="s">
@@ -8064,100 +8057,100 @@
       <c r="X91" s="43"/>
     </row>
     <row r="92" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="146" t="s">
+      <c r="A92" s="144" t="s">
         <v>233</v>
       </c>
-      <c r="B92" s="147"/>
-      <c r="C92" s="147"/>
-      <c r="D92" s="147"/>
-      <c r="E92" s="147"/>
-      <c r="F92" s="147"/>
-      <c r="G92" s="147"/>
-      <c r="H92" s="147"/>
-      <c r="I92" s="147"/>
-      <c r="J92" s="147"/>
-      <c r="K92" s="147"/>
-      <c r="L92" s="147"/>
-      <c r="M92" s="147"/>
-      <c r="N92" s="147"/>
-      <c r="O92" s="147"/>
-      <c r="P92" s="147"/>
-      <c r="Q92" s="147"/>
-      <c r="R92" s="147"/>
-      <c r="S92" s="147"/>
-      <c r="T92" s="147"/>
-      <c r="U92" s="147"/>
-      <c r="V92" s="147"/>
-      <c r="W92" s="147"/>
-      <c r="X92" s="148"/>
+      <c r="B92" s="145"/>
+      <c r="C92" s="145"/>
+      <c r="D92" s="145"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="145"/>
+      <c r="G92" s="145"/>
+      <c r="H92" s="145"/>
+      <c r="I92" s="145"/>
+      <c r="J92" s="145"/>
+      <c r="K92" s="145"/>
+      <c r="L92" s="145"/>
+      <c r="M92" s="145"/>
+      <c r="N92" s="145"/>
+      <c r="O92" s="145"/>
+      <c r="P92" s="145"/>
+      <c r="Q92" s="145"/>
+      <c r="R92" s="145"/>
+      <c r="S92" s="145"/>
+      <c r="T92" s="145"/>
+      <c r="U92" s="145"/>
+      <c r="V92" s="145"/>
+      <c r="W92" s="145"/>
+      <c r="X92" s="146"/>
     </row>
     <row r="93" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="165" t="s">
+      <c r="A93" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="166"/>
-      <c r="C93" s="166"/>
-      <c r="D93" s="166"/>
-      <c r="E93" s="166"/>
-      <c r="F93" s="166"/>
-      <c r="G93" s="166"/>
-      <c r="H93" s="166"/>
-      <c r="I93" s="166"/>
-      <c r="J93" s="166"/>
-      <c r="K93" s="166"/>
-      <c r="L93" s="166"/>
-      <c r="M93" s="166"/>
-      <c r="N93" s="166"/>
-      <c r="O93" s="166"/>
-      <c r="P93" s="167"/>
-      <c r="Q93" s="165" t="s">
+      <c r="B93" s="160"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="160"/>
+      <c r="E93" s="160"/>
+      <c r="F93" s="160"/>
+      <c r="G93" s="160"/>
+      <c r="H93" s="160"/>
+      <c r="I93" s="160"/>
+      <c r="J93" s="160"/>
+      <c r="K93" s="160"/>
+      <c r="L93" s="160"/>
+      <c r="M93" s="160"/>
+      <c r="N93" s="160"/>
+      <c r="O93" s="160"/>
+      <c r="P93" s="161"/>
+      <c r="Q93" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R93" s="166"/>
-      <c r="S93" s="166"/>
-      <c r="T93" s="166"/>
-      <c r="U93" s="166"/>
-      <c r="V93" s="166"/>
-      <c r="W93" s="166"/>
-      <c r="X93" s="167"/>
+      <c r="R93" s="160"/>
+      <c r="S93" s="160"/>
+      <c r="T93" s="160"/>
+      <c r="U93" s="160"/>
+      <c r="V93" s="160"/>
+      <c r="W93" s="160"/>
+      <c r="X93" s="161"/>
     </row>
     <row r="94" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="159" t="s">
+      <c r="A94" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="160"/>
-      <c r="C94" s="160"/>
-      <c r="D94" s="161"/>
-      <c r="E94" s="159" t="s">
+      <c r="B94" s="163"/>
+      <c r="C94" s="163"/>
+      <c r="D94" s="164"/>
+      <c r="E94" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F94" s="160"/>
-      <c r="G94" s="160"/>
-      <c r="H94" s="161"/>
-      <c r="I94" s="159" t="s">
+      <c r="F94" s="163"/>
+      <c r="G94" s="163"/>
+      <c r="H94" s="164"/>
+      <c r="I94" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="160"/>
-      <c r="K94" s="160"/>
-      <c r="L94" s="161"/>
-      <c r="M94" s="160" t="s">
+      <c r="J94" s="163"/>
+      <c r="K94" s="163"/>
+      <c r="L94" s="164"/>
+      <c r="M94" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N94" s="160"/>
-      <c r="O94" s="160"/>
-      <c r="P94" s="160"/>
-      <c r="Q94" s="162" t="s">
+      <c r="N94" s="163"/>
+      <c r="O94" s="163"/>
+      <c r="P94" s="163"/>
+      <c r="Q94" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R94" s="163"/>
-      <c r="S94" s="163"/>
-      <c r="T94" s="164"/>
-      <c r="U94" s="160" t="s">
+      <c r="R94" s="166"/>
+      <c r="S94" s="166"/>
+      <c r="T94" s="167"/>
+      <c r="U94" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V94" s="160"/>
-      <c r="W94" s="160"/>
-      <c r="X94" s="161"/>
+      <c r="V94" s="163"/>
+      <c r="W94" s="163"/>
+      <c r="X94" s="164"/>
     </row>
     <row r="95" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="62" t="s">
@@ -8360,100 +8353,100 @@
       <c r="X98" s="43"/>
     </row>
     <row r="99" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="146" t="s">
+      <c r="A99" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="147"/>
-      <c r="C99" s="147"/>
-      <c r="D99" s="147"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="147"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="147"/>
-      <c r="K99" s="147"/>
-      <c r="L99" s="147"/>
-      <c r="M99" s="147"/>
-      <c r="N99" s="147"/>
-      <c r="O99" s="147"/>
-      <c r="P99" s="147"/>
-      <c r="Q99" s="147"/>
-      <c r="R99" s="147"/>
-      <c r="S99" s="147"/>
-      <c r="T99" s="147"/>
-      <c r="U99" s="147"/>
-      <c r="V99" s="147"/>
-      <c r="W99" s="147"/>
-      <c r="X99" s="148"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="145"/>
+      <c r="D99" s="145"/>
+      <c r="E99" s="145"/>
+      <c r="F99" s="145"/>
+      <c r="G99" s="145"/>
+      <c r="H99" s="145"/>
+      <c r="I99" s="145"/>
+      <c r="J99" s="145"/>
+      <c r="K99" s="145"/>
+      <c r="L99" s="145"/>
+      <c r="M99" s="145"/>
+      <c r="N99" s="145"/>
+      <c r="O99" s="145"/>
+      <c r="P99" s="145"/>
+      <c r="Q99" s="145"/>
+      <c r="R99" s="145"/>
+      <c r="S99" s="145"/>
+      <c r="T99" s="145"/>
+      <c r="U99" s="145"/>
+      <c r="V99" s="145"/>
+      <c r="W99" s="145"/>
+      <c r="X99" s="146"/>
     </row>
     <row r="100" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="165" t="s">
+      <c r="A100" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="166"/>
-      <c r="C100" s="166"/>
-      <c r="D100" s="166"/>
-      <c r="E100" s="166"/>
-      <c r="F100" s="166"/>
-      <c r="G100" s="166"/>
-      <c r="H100" s="166"/>
-      <c r="I100" s="166"/>
-      <c r="J100" s="166"/>
-      <c r="K100" s="166"/>
-      <c r="L100" s="166"/>
-      <c r="M100" s="166"/>
-      <c r="N100" s="166"/>
-      <c r="O100" s="166"/>
-      <c r="P100" s="167"/>
-      <c r="Q100" s="165" t="s">
+      <c r="B100" s="160"/>
+      <c r="C100" s="160"/>
+      <c r="D100" s="160"/>
+      <c r="E100" s="160"/>
+      <c r="F100" s="160"/>
+      <c r="G100" s="160"/>
+      <c r="H100" s="160"/>
+      <c r="I100" s="160"/>
+      <c r="J100" s="160"/>
+      <c r="K100" s="160"/>
+      <c r="L100" s="160"/>
+      <c r="M100" s="160"/>
+      <c r="N100" s="160"/>
+      <c r="O100" s="160"/>
+      <c r="P100" s="161"/>
+      <c r="Q100" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R100" s="166"/>
-      <c r="S100" s="166"/>
-      <c r="T100" s="166"/>
-      <c r="U100" s="166"/>
-      <c r="V100" s="166"/>
-      <c r="W100" s="166"/>
-      <c r="X100" s="167"/>
+      <c r="R100" s="160"/>
+      <c r="S100" s="160"/>
+      <c r="T100" s="160"/>
+      <c r="U100" s="160"/>
+      <c r="V100" s="160"/>
+      <c r="W100" s="160"/>
+      <c r="X100" s="161"/>
     </row>
     <row r="101" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="159" t="s">
+      <c r="A101" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="160"/>
-      <c r="C101" s="160"/>
-      <c r="D101" s="161"/>
-      <c r="E101" s="159" t="s">
+      <c r="B101" s="163"/>
+      <c r="C101" s="163"/>
+      <c r="D101" s="164"/>
+      <c r="E101" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F101" s="160"/>
-      <c r="G101" s="160"/>
-      <c r="H101" s="161"/>
-      <c r="I101" s="159" t="s">
+      <c r="F101" s="163"/>
+      <c r="G101" s="163"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="160"/>
-      <c r="K101" s="160"/>
-      <c r="L101" s="161"/>
-      <c r="M101" s="160" t="s">
+      <c r="J101" s="163"/>
+      <c r="K101" s="163"/>
+      <c r="L101" s="164"/>
+      <c r="M101" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N101" s="160"/>
-      <c r="O101" s="160"/>
-      <c r="P101" s="160"/>
-      <c r="Q101" s="162" t="s">
+      <c r="N101" s="163"/>
+      <c r="O101" s="163"/>
+      <c r="P101" s="163"/>
+      <c r="Q101" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R101" s="163"/>
-      <c r="S101" s="163"/>
-      <c r="T101" s="164"/>
-      <c r="U101" s="160" t="s">
+      <c r="R101" s="166"/>
+      <c r="S101" s="166"/>
+      <c r="T101" s="167"/>
+      <c r="U101" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V101" s="160"/>
-      <c r="W101" s="160"/>
-      <c r="X101" s="161"/>
+      <c r="V101" s="163"/>
+      <c r="W101" s="163"/>
+      <c r="X101" s="164"/>
     </row>
     <row r="102" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="62" t="s">
@@ -8654,100 +8647,100 @@
       <c r="X105" s="43"/>
     </row>
     <row r="106" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="146" t="s">
+      <c r="A106" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="B106" s="147"/>
-      <c r="C106" s="147"/>
-      <c r="D106" s="147"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="147"/>
-      <c r="G106" s="147"/>
-      <c r="H106" s="147"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="147"/>
-      <c r="K106" s="147"/>
-      <c r="L106" s="147"/>
-      <c r="M106" s="147"/>
-      <c r="N106" s="147"/>
-      <c r="O106" s="147"/>
-      <c r="P106" s="147"/>
-      <c r="Q106" s="147"/>
-      <c r="R106" s="147"/>
-      <c r="S106" s="147"/>
-      <c r="T106" s="147"/>
-      <c r="U106" s="147"/>
-      <c r="V106" s="147"/>
-      <c r="W106" s="147"/>
-      <c r="X106" s="148"/>
+      <c r="B106" s="145"/>
+      <c r="C106" s="145"/>
+      <c r="D106" s="145"/>
+      <c r="E106" s="145"/>
+      <c r="F106" s="145"/>
+      <c r="G106" s="145"/>
+      <c r="H106" s="145"/>
+      <c r="I106" s="145"/>
+      <c r="J106" s="145"/>
+      <c r="K106" s="145"/>
+      <c r="L106" s="145"/>
+      <c r="M106" s="145"/>
+      <c r="N106" s="145"/>
+      <c r="O106" s="145"/>
+      <c r="P106" s="145"/>
+      <c r="Q106" s="145"/>
+      <c r="R106" s="145"/>
+      <c r="S106" s="145"/>
+      <c r="T106" s="145"/>
+      <c r="U106" s="145"/>
+      <c r="V106" s="145"/>
+      <c r="W106" s="145"/>
+      <c r="X106" s="146"/>
     </row>
     <row r="107" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="165" t="s">
+      <c r="A107" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="166"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="166"/>
-      <c r="E107" s="166"/>
-      <c r="F107" s="166"/>
-      <c r="G107" s="166"/>
-      <c r="H107" s="166"/>
-      <c r="I107" s="166"/>
-      <c r="J107" s="166"/>
-      <c r="K107" s="166"/>
-      <c r="L107" s="166"/>
-      <c r="M107" s="166"/>
-      <c r="N107" s="166"/>
-      <c r="O107" s="166"/>
-      <c r="P107" s="167"/>
-      <c r="Q107" s="165" t="s">
+      <c r="B107" s="160"/>
+      <c r="C107" s="160"/>
+      <c r="D107" s="160"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="160"/>
+      <c r="G107" s="160"/>
+      <c r="H107" s="160"/>
+      <c r="I107" s="160"/>
+      <c r="J107" s="160"/>
+      <c r="K107" s="160"/>
+      <c r="L107" s="160"/>
+      <c r="M107" s="160"/>
+      <c r="N107" s="160"/>
+      <c r="O107" s="160"/>
+      <c r="P107" s="161"/>
+      <c r="Q107" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R107" s="166"/>
-      <c r="S107" s="166"/>
-      <c r="T107" s="166"/>
-      <c r="U107" s="166"/>
-      <c r="V107" s="166"/>
-      <c r="W107" s="166"/>
-      <c r="X107" s="167"/>
+      <c r="R107" s="160"/>
+      <c r="S107" s="160"/>
+      <c r="T107" s="160"/>
+      <c r="U107" s="160"/>
+      <c r="V107" s="160"/>
+      <c r="W107" s="160"/>
+      <c r="X107" s="161"/>
     </row>
     <row r="108" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="159" t="s">
+      <c r="A108" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="160"/>
-      <c r="C108" s="160"/>
-      <c r="D108" s="161"/>
-      <c r="E108" s="159" t="s">
+      <c r="B108" s="163"/>
+      <c r="C108" s="163"/>
+      <c r="D108" s="164"/>
+      <c r="E108" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F108" s="160"/>
-      <c r="G108" s="160"/>
-      <c r="H108" s="161"/>
-      <c r="I108" s="159" t="s">
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="164"/>
+      <c r="I108" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J108" s="160"/>
-      <c r="K108" s="160"/>
-      <c r="L108" s="161"/>
-      <c r="M108" s="160" t="s">
+      <c r="J108" s="163"/>
+      <c r="K108" s="163"/>
+      <c r="L108" s="164"/>
+      <c r="M108" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N108" s="160"/>
-      <c r="O108" s="160"/>
-      <c r="P108" s="160"/>
-      <c r="Q108" s="162" t="s">
+      <c r="N108" s="163"/>
+      <c r="O108" s="163"/>
+      <c r="P108" s="163"/>
+      <c r="Q108" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R108" s="163"/>
-      <c r="S108" s="163"/>
-      <c r="T108" s="164"/>
-      <c r="U108" s="160" t="s">
+      <c r="R108" s="166"/>
+      <c r="S108" s="166"/>
+      <c r="T108" s="167"/>
+      <c r="U108" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V108" s="160"/>
-      <c r="W108" s="160"/>
-      <c r="X108" s="161"/>
+      <c r="V108" s="163"/>
+      <c r="W108" s="163"/>
+      <c r="X108" s="164"/>
     </row>
     <row r="109" spans="1:24" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A109" s="62" t="s">
@@ -8950,100 +8943,100 @@
       <c r="X112" s="43"/>
     </row>
     <row r="113" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="146" t="s">
+      <c r="A113" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="147"/>
-      <c r="C113" s="147"/>
-      <c r="D113" s="147"/>
-      <c r="E113" s="147"/>
-      <c r="F113" s="147"/>
-      <c r="G113" s="147"/>
-      <c r="H113" s="147"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="147"/>
-      <c r="K113" s="147"/>
-      <c r="L113" s="147"/>
-      <c r="M113" s="147"/>
-      <c r="N113" s="147"/>
-      <c r="O113" s="147"/>
-      <c r="P113" s="147"/>
-      <c r="Q113" s="147"/>
-      <c r="R113" s="147"/>
-      <c r="S113" s="147"/>
-      <c r="T113" s="147"/>
-      <c r="U113" s="147"/>
-      <c r="V113" s="147"/>
-      <c r="W113" s="147"/>
-      <c r="X113" s="148"/>
+      <c r="B113" s="145"/>
+      <c r="C113" s="145"/>
+      <c r="D113" s="145"/>
+      <c r="E113" s="145"/>
+      <c r="F113" s="145"/>
+      <c r="G113" s="145"/>
+      <c r="H113" s="145"/>
+      <c r="I113" s="145"/>
+      <c r="J113" s="145"/>
+      <c r="K113" s="145"/>
+      <c r="L113" s="145"/>
+      <c r="M113" s="145"/>
+      <c r="N113" s="145"/>
+      <c r="O113" s="145"/>
+      <c r="P113" s="145"/>
+      <c r="Q113" s="145"/>
+      <c r="R113" s="145"/>
+      <c r="S113" s="145"/>
+      <c r="T113" s="145"/>
+      <c r="U113" s="145"/>
+      <c r="V113" s="145"/>
+      <c r="W113" s="145"/>
+      <c r="X113" s="146"/>
     </row>
     <row r="114" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="165" t="s">
+      <c r="A114" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="166"/>
-      <c r="C114" s="166"/>
-      <c r="D114" s="166"/>
-      <c r="E114" s="166"/>
-      <c r="F114" s="166"/>
-      <c r="G114" s="166"/>
-      <c r="H114" s="166"/>
-      <c r="I114" s="166"/>
-      <c r="J114" s="166"/>
-      <c r="K114" s="166"/>
-      <c r="L114" s="166"/>
-      <c r="M114" s="166"/>
-      <c r="N114" s="166"/>
-      <c r="O114" s="166"/>
-      <c r="P114" s="167"/>
-      <c r="Q114" s="165" t="s">
+      <c r="B114" s="160"/>
+      <c r="C114" s="160"/>
+      <c r="D114" s="160"/>
+      <c r="E114" s="160"/>
+      <c r="F114" s="160"/>
+      <c r="G114" s="160"/>
+      <c r="H114" s="160"/>
+      <c r="I114" s="160"/>
+      <c r="J114" s="160"/>
+      <c r="K114" s="160"/>
+      <c r="L114" s="160"/>
+      <c r="M114" s="160"/>
+      <c r="N114" s="160"/>
+      <c r="O114" s="160"/>
+      <c r="P114" s="161"/>
+      <c r="Q114" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R114" s="166"/>
-      <c r="S114" s="166"/>
-      <c r="T114" s="166"/>
-      <c r="U114" s="166"/>
-      <c r="V114" s="166"/>
-      <c r="W114" s="166"/>
-      <c r="X114" s="167"/>
+      <c r="R114" s="160"/>
+      <c r="S114" s="160"/>
+      <c r="T114" s="160"/>
+      <c r="U114" s="160"/>
+      <c r="V114" s="160"/>
+      <c r="W114" s="160"/>
+      <c r="X114" s="161"/>
     </row>
     <row r="115" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="159" t="s">
+      <c r="A115" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="160"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="161"/>
-      <c r="E115" s="159" t="s">
+      <c r="B115" s="163"/>
+      <c r="C115" s="163"/>
+      <c r="D115" s="164"/>
+      <c r="E115" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F115" s="160"/>
-      <c r="G115" s="160"/>
-      <c r="H115" s="161"/>
-      <c r="I115" s="159" t="s">
+      <c r="F115" s="163"/>
+      <c r="G115" s="163"/>
+      <c r="H115" s="164"/>
+      <c r="I115" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="160"/>
-      <c r="K115" s="160"/>
-      <c r="L115" s="161"/>
-      <c r="M115" s="160" t="s">
+      <c r="J115" s="163"/>
+      <c r="K115" s="163"/>
+      <c r="L115" s="164"/>
+      <c r="M115" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N115" s="160"/>
-      <c r="O115" s="160"/>
-      <c r="P115" s="160"/>
-      <c r="Q115" s="162" t="s">
+      <c r="N115" s="163"/>
+      <c r="O115" s="163"/>
+      <c r="P115" s="163"/>
+      <c r="Q115" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R115" s="163"/>
-      <c r="S115" s="163"/>
-      <c r="T115" s="164"/>
-      <c r="U115" s="160" t="s">
+      <c r="R115" s="166"/>
+      <c r="S115" s="166"/>
+      <c r="T115" s="167"/>
+      <c r="U115" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V115" s="160"/>
-      <c r="W115" s="160"/>
-      <c r="X115" s="161"/>
+      <c r="V115" s="163"/>
+      <c r="W115" s="163"/>
+      <c r="X115" s="164"/>
     </row>
     <row r="116" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="55" t="s">
@@ -9240,100 +9233,100 @@
       <c r="X119" s="43"/>
     </row>
     <row r="120" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="146" t="s">
+      <c r="A120" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="147"/>
-      <c r="C120" s="147"/>
-      <c r="D120" s="147"/>
-      <c r="E120" s="147"/>
-      <c r="F120" s="147"/>
-      <c r="G120" s="147"/>
-      <c r="H120" s="147"/>
-      <c r="I120" s="147"/>
-      <c r="J120" s="147"/>
-      <c r="K120" s="147"/>
-      <c r="L120" s="147"/>
-      <c r="M120" s="147"/>
-      <c r="N120" s="147"/>
-      <c r="O120" s="147"/>
-      <c r="P120" s="147"/>
-      <c r="Q120" s="147"/>
-      <c r="R120" s="147"/>
-      <c r="S120" s="147"/>
-      <c r="T120" s="147"/>
-      <c r="U120" s="147"/>
-      <c r="V120" s="147"/>
-      <c r="W120" s="147"/>
-      <c r="X120" s="148"/>
+      <c r="B120" s="145"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="145"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="145"/>
+      <c r="G120" s="145"/>
+      <c r="H120" s="145"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="145"/>
+      <c r="L120" s="145"/>
+      <c r="M120" s="145"/>
+      <c r="N120" s="145"/>
+      <c r="O120" s="145"/>
+      <c r="P120" s="145"/>
+      <c r="Q120" s="145"/>
+      <c r="R120" s="145"/>
+      <c r="S120" s="145"/>
+      <c r="T120" s="145"/>
+      <c r="U120" s="145"/>
+      <c r="V120" s="145"/>
+      <c r="W120" s="145"/>
+      <c r="X120" s="146"/>
     </row>
     <row r="121" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="165" t="s">
+      <c r="A121" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="166"/>
-      <c r="C121" s="166"/>
-      <c r="D121" s="166"/>
-      <c r="E121" s="166"/>
-      <c r="F121" s="166"/>
-      <c r="G121" s="166"/>
-      <c r="H121" s="166"/>
-      <c r="I121" s="166"/>
-      <c r="J121" s="166"/>
-      <c r="K121" s="166"/>
-      <c r="L121" s="166"/>
-      <c r="M121" s="166"/>
-      <c r="N121" s="166"/>
-      <c r="O121" s="166"/>
-      <c r="P121" s="167"/>
-      <c r="Q121" s="165" t="s">
+      <c r="B121" s="160"/>
+      <c r="C121" s="160"/>
+      <c r="D121" s="160"/>
+      <c r="E121" s="160"/>
+      <c r="F121" s="160"/>
+      <c r="G121" s="160"/>
+      <c r="H121" s="160"/>
+      <c r="I121" s="160"/>
+      <c r="J121" s="160"/>
+      <c r="K121" s="160"/>
+      <c r="L121" s="160"/>
+      <c r="M121" s="160"/>
+      <c r="N121" s="160"/>
+      <c r="O121" s="160"/>
+      <c r="P121" s="161"/>
+      <c r="Q121" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R121" s="166"/>
-      <c r="S121" s="166"/>
-      <c r="T121" s="166"/>
-      <c r="U121" s="166"/>
-      <c r="V121" s="166"/>
-      <c r="W121" s="166"/>
-      <c r="X121" s="167"/>
+      <c r="R121" s="160"/>
+      <c r="S121" s="160"/>
+      <c r="T121" s="160"/>
+      <c r="U121" s="160"/>
+      <c r="V121" s="160"/>
+      <c r="W121" s="160"/>
+      <c r="X121" s="161"/>
     </row>
     <row r="122" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="159" t="s">
+      <c r="A122" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="160"/>
-      <c r="C122" s="160"/>
-      <c r="D122" s="161"/>
-      <c r="E122" s="159" t="s">
+      <c r="B122" s="163"/>
+      <c r="C122" s="163"/>
+      <c r="D122" s="164"/>
+      <c r="E122" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F122" s="160"/>
-      <c r="G122" s="160"/>
-      <c r="H122" s="161"/>
-      <c r="I122" s="159" t="s">
+      <c r="F122" s="163"/>
+      <c r="G122" s="163"/>
+      <c r="H122" s="164"/>
+      <c r="I122" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J122" s="160"/>
-      <c r="K122" s="160"/>
-      <c r="L122" s="161"/>
-      <c r="M122" s="160" t="s">
+      <c r="J122" s="163"/>
+      <c r="K122" s="163"/>
+      <c r="L122" s="164"/>
+      <c r="M122" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N122" s="160"/>
-      <c r="O122" s="160"/>
-      <c r="P122" s="160"/>
-      <c r="Q122" s="162" t="s">
+      <c r="N122" s="163"/>
+      <c r="O122" s="163"/>
+      <c r="P122" s="163"/>
+      <c r="Q122" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R122" s="163"/>
-      <c r="S122" s="163"/>
-      <c r="T122" s="164"/>
-      <c r="U122" s="160" t="s">
+      <c r="R122" s="166"/>
+      <c r="S122" s="166"/>
+      <c r="T122" s="167"/>
+      <c r="U122" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V122" s="160"/>
-      <c r="W122" s="160"/>
-      <c r="X122" s="161"/>
+      <c r="V122" s="163"/>
+      <c r="W122" s="163"/>
+      <c r="X122" s="164"/>
     </row>
     <row r="123" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="55" t="s">
@@ -9532,100 +9525,100 @@
       <c r="X126" s="43"/>
     </row>
     <row r="127" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="146" t="s">
+      <c r="A127" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="147"/>
-      <c r="C127" s="147"/>
-      <c r="D127" s="147"/>
-      <c r="E127" s="147"/>
-      <c r="F127" s="147"/>
-      <c r="G127" s="147"/>
-      <c r="H127" s="147"/>
-      <c r="I127" s="147"/>
-      <c r="J127" s="147"/>
-      <c r="K127" s="147"/>
-      <c r="L127" s="147"/>
-      <c r="M127" s="147"/>
-      <c r="N127" s="147"/>
-      <c r="O127" s="147"/>
-      <c r="P127" s="147"/>
-      <c r="Q127" s="147"/>
-      <c r="R127" s="147"/>
-      <c r="S127" s="147"/>
-      <c r="T127" s="147"/>
-      <c r="U127" s="147"/>
-      <c r="V127" s="147"/>
-      <c r="W127" s="147"/>
-      <c r="X127" s="148"/>
+      <c r="B127" s="145"/>
+      <c r="C127" s="145"/>
+      <c r="D127" s="145"/>
+      <c r="E127" s="145"/>
+      <c r="F127" s="145"/>
+      <c r="G127" s="145"/>
+      <c r="H127" s="145"/>
+      <c r="I127" s="145"/>
+      <c r="J127" s="145"/>
+      <c r="K127" s="145"/>
+      <c r="L127" s="145"/>
+      <c r="M127" s="145"/>
+      <c r="N127" s="145"/>
+      <c r="O127" s="145"/>
+      <c r="P127" s="145"/>
+      <c r="Q127" s="145"/>
+      <c r="R127" s="145"/>
+      <c r="S127" s="145"/>
+      <c r="T127" s="145"/>
+      <c r="U127" s="145"/>
+      <c r="V127" s="145"/>
+      <c r="W127" s="145"/>
+      <c r="X127" s="146"/>
     </row>
     <row r="128" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="165" t="s">
+      <c r="A128" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="166"/>
-      <c r="C128" s="166"/>
-      <c r="D128" s="166"/>
-      <c r="E128" s="166"/>
-      <c r="F128" s="166"/>
-      <c r="G128" s="166"/>
-      <c r="H128" s="166"/>
-      <c r="I128" s="166"/>
-      <c r="J128" s="166"/>
-      <c r="K128" s="166"/>
-      <c r="L128" s="166"/>
-      <c r="M128" s="166"/>
-      <c r="N128" s="166"/>
-      <c r="O128" s="166"/>
-      <c r="P128" s="167"/>
-      <c r="Q128" s="165" t="s">
+      <c r="B128" s="160"/>
+      <c r="C128" s="160"/>
+      <c r="D128" s="160"/>
+      <c r="E128" s="160"/>
+      <c r="F128" s="160"/>
+      <c r="G128" s="160"/>
+      <c r="H128" s="160"/>
+      <c r="I128" s="160"/>
+      <c r="J128" s="160"/>
+      <c r="K128" s="160"/>
+      <c r="L128" s="160"/>
+      <c r="M128" s="160"/>
+      <c r="N128" s="160"/>
+      <c r="O128" s="160"/>
+      <c r="P128" s="161"/>
+      <c r="Q128" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R128" s="166"/>
-      <c r="S128" s="166"/>
-      <c r="T128" s="166"/>
-      <c r="U128" s="166"/>
-      <c r="V128" s="166"/>
-      <c r="W128" s="166"/>
-      <c r="X128" s="167"/>
+      <c r="R128" s="160"/>
+      <c r="S128" s="160"/>
+      <c r="T128" s="160"/>
+      <c r="U128" s="160"/>
+      <c r="V128" s="160"/>
+      <c r="W128" s="160"/>
+      <c r="X128" s="161"/>
     </row>
     <row r="129" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="159" t="s">
+      <c r="A129" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B129" s="160"/>
-      <c r="C129" s="160"/>
-      <c r="D129" s="161"/>
-      <c r="E129" s="159" t="s">
+      <c r="B129" s="163"/>
+      <c r="C129" s="163"/>
+      <c r="D129" s="164"/>
+      <c r="E129" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F129" s="160"/>
-      <c r="G129" s="160"/>
-      <c r="H129" s="161"/>
-      <c r="I129" s="162" t="s">
+      <c r="F129" s="163"/>
+      <c r="G129" s="163"/>
+      <c r="H129" s="164"/>
+      <c r="I129" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="J129" s="163"/>
-      <c r="K129" s="163"/>
-      <c r="L129" s="164"/>
-      <c r="M129" s="160" t="s">
+      <c r="J129" s="166"/>
+      <c r="K129" s="166"/>
+      <c r="L129" s="167"/>
+      <c r="M129" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N129" s="160"/>
-      <c r="O129" s="160"/>
-      <c r="P129" s="160"/>
-      <c r="Q129" s="162" t="s">
+      <c r="N129" s="163"/>
+      <c r="O129" s="163"/>
+      <c r="P129" s="163"/>
+      <c r="Q129" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R129" s="163"/>
-      <c r="S129" s="163"/>
-      <c r="T129" s="164"/>
-      <c r="U129" s="160" t="s">
+      <c r="R129" s="166"/>
+      <c r="S129" s="166"/>
+      <c r="T129" s="167"/>
+      <c r="U129" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V129" s="160"/>
-      <c r="W129" s="160"/>
-      <c r="X129" s="161"/>
+      <c r="V129" s="163"/>
+      <c r="W129" s="163"/>
+      <c r="X129" s="164"/>
     </row>
     <row r="130" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="55" t="s">
@@ -9823,100 +9816,100 @@
       <c r="X133" s="43"/>
     </row>
     <row r="134" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="146" t="s">
+      <c r="A134" s="144" t="s">
         <v>293</v>
       </c>
-      <c r="B134" s="147"/>
-      <c r="C134" s="147"/>
-      <c r="D134" s="147"/>
-      <c r="E134" s="147"/>
-      <c r="F134" s="147"/>
-      <c r="G134" s="147"/>
-      <c r="H134" s="147"/>
-      <c r="I134" s="147"/>
-      <c r="J134" s="147"/>
-      <c r="K134" s="147"/>
-      <c r="L134" s="147"/>
-      <c r="M134" s="147"/>
-      <c r="N134" s="147"/>
-      <c r="O134" s="147"/>
-      <c r="P134" s="147"/>
-      <c r="Q134" s="147"/>
-      <c r="R134" s="147"/>
-      <c r="S134" s="147"/>
-      <c r="T134" s="147"/>
-      <c r="U134" s="147"/>
-      <c r="V134" s="147"/>
-      <c r="W134" s="147"/>
-      <c r="X134" s="148"/>
+      <c r="B134" s="145"/>
+      <c r="C134" s="145"/>
+      <c r="D134" s="145"/>
+      <c r="E134" s="145"/>
+      <c r="F134" s="145"/>
+      <c r="G134" s="145"/>
+      <c r="H134" s="145"/>
+      <c r="I134" s="145"/>
+      <c r="J134" s="145"/>
+      <c r="K134" s="145"/>
+      <c r="L134" s="145"/>
+      <c r="M134" s="145"/>
+      <c r="N134" s="145"/>
+      <c r="O134" s="145"/>
+      <c r="P134" s="145"/>
+      <c r="Q134" s="145"/>
+      <c r="R134" s="145"/>
+      <c r="S134" s="145"/>
+      <c r="T134" s="145"/>
+      <c r="U134" s="145"/>
+      <c r="V134" s="145"/>
+      <c r="W134" s="145"/>
+      <c r="X134" s="146"/>
     </row>
     <row r="135" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="165" t="s">
+      <c r="A135" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="166"/>
-      <c r="C135" s="166"/>
-      <c r="D135" s="166"/>
-      <c r="E135" s="166"/>
-      <c r="F135" s="166"/>
-      <c r="G135" s="166"/>
-      <c r="H135" s="166"/>
-      <c r="I135" s="166"/>
-      <c r="J135" s="166"/>
-      <c r="K135" s="166"/>
-      <c r="L135" s="166"/>
-      <c r="M135" s="166"/>
-      <c r="N135" s="166"/>
-      <c r="O135" s="166"/>
-      <c r="P135" s="167"/>
-      <c r="Q135" s="165" t="s">
+      <c r="B135" s="160"/>
+      <c r="C135" s="160"/>
+      <c r="D135" s="160"/>
+      <c r="E135" s="160"/>
+      <c r="F135" s="160"/>
+      <c r="G135" s="160"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="160"/>
+      <c r="J135" s="160"/>
+      <c r="K135" s="160"/>
+      <c r="L135" s="160"/>
+      <c r="M135" s="160"/>
+      <c r="N135" s="160"/>
+      <c r="O135" s="160"/>
+      <c r="P135" s="161"/>
+      <c r="Q135" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R135" s="166"/>
-      <c r="S135" s="166"/>
-      <c r="T135" s="166"/>
-      <c r="U135" s="166"/>
-      <c r="V135" s="166"/>
-      <c r="W135" s="166"/>
-      <c r="X135" s="167"/>
+      <c r="R135" s="160"/>
+      <c r="S135" s="160"/>
+      <c r="T135" s="160"/>
+      <c r="U135" s="160"/>
+      <c r="V135" s="160"/>
+      <c r="W135" s="160"/>
+      <c r="X135" s="161"/>
     </row>
     <row r="136" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A136" s="159" t="s">
+      <c r="A136" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="160"/>
-      <c r="C136" s="160"/>
-      <c r="D136" s="161"/>
-      <c r="E136" s="159" t="s">
+      <c r="B136" s="163"/>
+      <c r="C136" s="163"/>
+      <c r="D136" s="164"/>
+      <c r="E136" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F136" s="160"/>
-      <c r="G136" s="160"/>
-      <c r="H136" s="161"/>
-      <c r="I136" s="162" t="s">
+      <c r="F136" s="163"/>
+      <c r="G136" s="163"/>
+      <c r="H136" s="164"/>
+      <c r="I136" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="J136" s="163"/>
-      <c r="K136" s="163"/>
-      <c r="L136" s="164"/>
-      <c r="M136" s="160" t="s">
+      <c r="J136" s="166"/>
+      <c r="K136" s="166"/>
+      <c r="L136" s="167"/>
+      <c r="M136" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N136" s="160"/>
-      <c r="O136" s="160"/>
-      <c r="P136" s="160"/>
-      <c r="Q136" s="162" t="s">
+      <c r="N136" s="163"/>
+      <c r="O136" s="163"/>
+      <c r="P136" s="163"/>
+      <c r="Q136" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R136" s="163"/>
-      <c r="S136" s="163"/>
-      <c r="T136" s="164"/>
-      <c r="U136" s="160" t="s">
+      <c r="R136" s="166"/>
+      <c r="S136" s="166"/>
+      <c r="T136" s="167"/>
+      <c r="U136" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V136" s="160"/>
-      <c r="W136" s="160"/>
-      <c r="X136" s="161"/>
+      <c r="V136" s="163"/>
+      <c r="W136" s="163"/>
+      <c r="X136" s="164"/>
     </row>
     <row r="137" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="55" t="s">
@@ -10115,100 +10108,100 @@
       <c r="X140" s="43"/>
     </row>
     <row r="141" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="146" t="s">
+      <c r="A141" s="144" t="s">
         <v>294</v>
       </c>
-      <c r="B141" s="147"/>
-      <c r="C141" s="147"/>
-      <c r="D141" s="147"/>
-      <c r="E141" s="147"/>
-      <c r="F141" s="147"/>
-      <c r="G141" s="147"/>
-      <c r="H141" s="147"/>
-      <c r="I141" s="147"/>
-      <c r="J141" s="147"/>
-      <c r="K141" s="147"/>
-      <c r="L141" s="147"/>
-      <c r="M141" s="147"/>
-      <c r="N141" s="147"/>
-      <c r="O141" s="147"/>
-      <c r="P141" s="147"/>
-      <c r="Q141" s="147"/>
-      <c r="R141" s="147"/>
-      <c r="S141" s="147"/>
-      <c r="T141" s="147"/>
-      <c r="U141" s="147"/>
-      <c r="V141" s="147"/>
-      <c r="W141" s="147"/>
-      <c r="X141" s="148"/>
+      <c r="B141" s="145"/>
+      <c r="C141" s="145"/>
+      <c r="D141" s="145"/>
+      <c r="E141" s="145"/>
+      <c r="F141" s="145"/>
+      <c r="G141" s="145"/>
+      <c r="H141" s="145"/>
+      <c r="I141" s="145"/>
+      <c r="J141" s="145"/>
+      <c r="K141" s="145"/>
+      <c r="L141" s="145"/>
+      <c r="M141" s="145"/>
+      <c r="N141" s="145"/>
+      <c r="O141" s="145"/>
+      <c r="P141" s="145"/>
+      <c r="Q141" s="145"/>
+      <c r="R141" s="145"/>
+      <c r="S141" s="145"/>
+      <c r="T141" s="145"/>
+      <c r="U141" s="145"/>
+      <c r="V141" s="145"/>
+      <c r="W141" s="145"/>
+      <c r="X141" s="146"/>
     </row>
     <row r="142" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="165" t="s">
+      <c r="A142" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B142" s="166"/>
-      <c r="C142" s="166"/>
-      <c r="D142" s="166"/>
-      <c r="E142" s="166"/>
-      <c r="F142" s="166"/>
-      <c r="G142" s="166"/>
-      <c r="H142" s="166"/>
-      <c r="I142" s="166"/>
-      <c r="J142" s="166"/>
-      <c r="K142" s="166"/>
-      <c r="L142" s="166"/>
-      <c r="M142" s="166"/>
-      <c r="N142" s="166"/>
-      <c r="O142" s="166"/>
-      <c r="P142" s="167"/>
-      <c r="Q142" s="165" t="s">
+      <c r="B142" s="160"/>
+      <c r="C142" s="160"/>
+      <c r="D142" s="160"/>
+      <c r="E142" s="160"/>
+      <c r="F142" s="160"/>
+      <c r="G142" s="160"/>
+      <c r="H142" s="160"/>
+      <c r="I142" s="160"/>
+      <c r="J142" s="160"/>
+      <c r="K142" s="160"/>
+      <c r="L142" s="160"/>
+      <c r="M142" s="160"/>
+      <c r="N142" s="160"/>
+      <c r="O142" s="160"/>
+      <c r="P142" s="161"/>
+      <c r="Q142" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R142" s="166"/>
-      <c r="S142" s="166"/>
-      <c r="T142" s="166"/>
-      <c r="U142" s="166"/>
-      <c r="V142" s="166"/>
-      <c r="W142" s="166"/>
-      <c r="X142" s="167"/>
+      <c r="R142" s="160"/>
+      <c r="S142" s="160"/>
+      <c r="T142" s="160"/>
+      <c r="U142" s="160"/>
+      <c r="V142" s="160"/>
+      <c r="W142" s="160"/>
+      <c r="X142" s="161"/>
     </row>
     <row r="143" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A143" s="159" t="s">
+      <c r="A143" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="160"/>
-      <c r="C143" s="160"/>
-      <c r="D143" s="161"/>
-      <c r="E143" s="159" t="s">
+      <c r="B143" s="163"/>
+      <c r="C143" s="163"/>
+      <c r="D143" s="164"/>
+      <c r="E143" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F143" s="160"/>
-      <c r="G143" s="160"/>
-      <c r="H143" s="161"/>
-      <c r="I143" s="162" t="s">
+      <c r="F143" s="163"/>
+      <c r="G143" s="163"/>
+      <c r="H143" s="164"/>
+      <c r="I143" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="J143" s="163"/>
-      <c r="K143" s="163"/>
-      <c r="L143" s="164"/>
-      <c r="M143" s="160" t="s">
+      <c r="J143" s="166"/>
+      <c r="K143" s="166"/>
+      <c r="L143" s="167"/>
+      <c r="M143" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N143" s="160"/>
-      <c r="O143" s="160"/>
-      <c r="P143" s="160"/>
-      <c r="Q143" s="162" t="s">
+      <c r="N143" s="163"/>
+      <c r="O143" s="163"/>
+      <c r="P143" s="163"/>
+      <c r="Q143" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R143" s="163"/>
-      <c r="S143" s="163"/>
-      <c r="T143" s="164"/>
-      <c r="U143" s="160" t="s">
+      <c r="R143" s="166"/>
+      <c r="S143" s="166"/>
+      <c r="T143" s="167"/>
+      <c r="U143" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V143" s="160"/>
-      <c r="W143" s="160"/>
-      <c r="X143" s="161"/>
+      <c r="V143" s="163"/>
+      <c r="W143" s="163"/>
+      <c r="X143" s="164"/>
     </row>
     <row r="144" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="55" t="s">
@@ -10406,100 +10399,100 @@
       <c r="X147" s="43"/>
     </row>
     <row r="148" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="146" t="s">
+      <c r="A148" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="B148" s="147"/>
-      <c r="C148" s="147"/>
-      <c r="D148" s="147"/>
-      <c r="E148" s="147"/>
-      <c r="F148" s="147"/>
-      <c r="G148" s="147"/>
-      <c r="H148" s="147"/>
-      <c r="I148" s="147"/>
-      <c r="J148" s="147"/>
-      <c r="K148" s="147"/>
-      <c r="L148" s="147"/>
-      <c r="M148" s="147"/>
-      <c r="N148" s="147"/>
-      <c r="O148" s="147"/>
-      <c r="P148" s="147"/>
-      <c r="Q148" s="147"/>
-      <c r="R148" s="147"/>
-      <c r="S148" s="147"/>
-      <c r="T148" s="147"/>
-      <c r="U148" s="147"/>
-      <c r="V148" s="147"/>
-      <c r="W148" s="147"/>
-      <c r="X148" s="148"/>
+      <c r="B148" s="145"/>
+      <c r="C148" s="145"/>
+      <c r="D148" s="145"/>
+      <c r="E148" s="145"/>
+      <c r="F148" s="145"/>
+      <c r="G148" s="145"/>
+      <c r="H148" s="145"/>
+      <c r="I148" s="145"/>
+      <c r="J148" s="145"/>
+      <c r="K148" s="145"/>
+      <c r="L148" s="145"/>
+      <c r="M148" s="145"/>
+      <c r="N148" s="145"/>
+      <c r="O148" s="145"/>
+      <c r="P148" s="145"/>
+      <c r="Q148" s="145"/>
+      <c r="R148" s="145"/>
+      <c r="S148" s="145"/>
+      <c r="T148" s="145"/>
+      <c r="U148" s="145"/>
+      <c r="V148" s="145"/>
+      <c r="W148" s="145"/>
+      <c r="X148" s="146"/>
     </row>
     <row r="149" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="165" t="s">
+      <c r="A149" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="166"/>
-      <c r="C149" s="166"/>
-      <c r="D149" s="166"/>
-      <c r="E149" s="166"/>
-      <c r="F149" s="166"/>
-      <c r="G149" s="166"/>
-      <c r="H149" s="166"/>
-      <c r="I149" s="166"/>
-      <c r="J149" s="166"/>
-      <c r="K149" s="166"/>
-      <c r="L149" s="166"/>
-      <c r="M149" s="166"/>
-      <c r="N149" s="166"/>
-      <c r="O149" s="166"/>
-      <c r="P149" s="167"/>
-      <c r="Q149" s="165" t="s">
+      <c r="B149" s="160"/>
+      <c r="C149" s="160"/>
+      <c r="D149" s="160"/>
+      <c r="E149" s="160"/>
+      <c r="F149" s="160"/>
+      <c r="G149" s="160"/>
+      <c r="H149" s="160"/>
+      <c r="I149" s="160"/>
+      <c r="J149" s="160"/>
+      <c r="K149" s="160"/>
+      <c r="L149" s="160"/>
+      <c r="M149" s="160"/>
+      <c r="N149" s="160"/>
+      <c r="O149" s="160"/>
+      <c r="P149" s="161"/>
+      <c r="Q149" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="R149" s="166"/>
-      <c r="S149" s="166"/>
-      <c r="T149" s="166"/>
-      <c r="U149" s="166"/>
-      <c r="V149" s="166"/>
-      <c r="W149" s="166"/>
-      <c r="X149" s="167"/>
+      <c r="R149" s="160"/>
+      <c r="S149" s="160"/>
+      <c r="T149" s="160"/>
+      <c r="U149" s="160"/>
+      <c r="V149" s="160"/>
+      <c r="W149" s="160"/>
+      <c r="X149" s="161"/>
     </row>
     <row r="150" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A150" s="159" t="s">
+      <c r="A150" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B150" s="160"/>
-      <c r="C150" s="160"/>
-      <c r="D150" s="161"/>
-      <c r="E150" s="159" t="s">
+      <c r="B150" s="163"/>
+      <c r="C150" s="163"/>
+      <c r="D150" s="164"/>
+      <c r="E150" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F150" s="160"/>
-      <c r="G150" s="160"/>
-      <c r="H150" s="161"/>
-      <c r="I150" s="159" t="s">
+      <c r="F150" s="163"/>
+      <c r="G150" s="163"/>
+      <c r="H150" s="164"/>
+      <c r="I150" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J150" s="160"/>
-      <c r="K150" s="160"/>
-      <c r="L150" s="161"/>
-      <c r="M150" s="160" t="s">
+      <c r="J150" s="163"/>
+      <c r="K150" s="163"/>
+      <c r="L150" s="164"/>
+      <c r="M150" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="N150" s="160"/>
-      <c r="O150" s="160"/>
-      <c r="P150" s="160"/>
-      <c r="Q150" s="162" t="s">
+      <c r="N150" s="163"/>
+      <c r="O150" s="163"/>
+      <c r="P150" s="163"/>
+      <c r="Q150" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R150" s="163"/>
-      <c r="S150" s="163"/>
-      <c r="T150" s="164"/>
-      <c r="U150" s="160" t="s">
+      <c r="R150" s="166"/>
+      <c r="S150" s="166"/>
+      <c r="T150" s="167"/>
+      <c r="U150" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="V150" s="160"/>
-      <c r="W150" s="160"/>
-      <c r="X150" s="161"/>
+      <c r="V150" s="163"/>
+      <c r="W150" s="163"/>
+      <c r="X150" s="164"/>
     </row>
     <row r="151" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="62" t="s">
@@ -10709,35 +10702,146 @@
     <row r="163" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="A85:X85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="Q86:X86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="Q87:T87"/>
-    <mergeCell ref="U87:X87"/>
-    <mergeCell ref="A71:X71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="Q72:X72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:T73"/>
-    <mergeCell ref="U73:X73"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="A57:X57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="Q58:X58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="E143:H143"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="M143:P143"/>
+    <mergeCell ref="Q143:T143"/>
+    <mergeCell ref="U143:X143"/>
+    <mergeCell ref="A113:X113"/>
+    <mergeCell ref="A114:P114"/>
+    <mergeCell ref="Q114:X114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="Q115:T115"/>
+    <mergeCell ref="U115:X115"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="E136:H136"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="Q136:T136"/>
+    <mergeCell ref="U136:X136"/>
+    <mergeCell ref="A141:X141"/>
+    <mergeCell ref="A142:P142"/>
+    <mergeCell ref="Q142:X142"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="A78:X78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="Q79:X79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="Q80:T80"/>
+    <mergeCell ref="U80:X80"/>
+    <mergeCell ref="A64:X64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="Q65:X65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="U66:X66"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="A127:X127"/>
+    <mergeCell ref="M129:P129"/>
+    <mergeCell ref="Q129:T129"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="A99:X99"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="Q100:X100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="M101:P101"/>
+    <mergeCell ref="Q101:T101"/>
+    <mergeCell ref="U101:X101"/>
+    <mergeCell ref="A106:X106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="Q107:X107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="Q108:T108"/>
+    <mergeCell ref="U108:X108"/>
+    <mergeCell ref="U150:X150"/>
+    <mergeCell ref="A120:X120"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="E122:H122"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="U122:X122"/>
+    <mergeCell ref="A148:X148"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="E150:H150"/>
+    <mergeCell ref="M150:P150"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="Q122:T122"/>
+    <mergeCell ref="Q150:T150"/>
+    <mergeCell ref="A149:P149"/>
+    <mergeCell ref="Q149:X149"/>
+    <mergeCell ref="A134:X134"/>
+    <mergeCell ref="A135:P135"/>
+    <mergeCell ref="Q135:X135"/>
+    <mergeCell ref="A128:P128"/>
+    <mergeCell ref="Q128:X128"/>
+    <mergeCell ref="U129:X129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="U94:X94"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="Q23:X23"/>
+    <mergeCell ref="Q93:X93"/>
+    <mergeCell ref="A121:P121"/>
+    <mergeCell ref="Q121:X121"/>
+    <mergeCell ref="Q51:X51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A93:P93"/>
     <mergeCell ref="A94:D94"/>
@@ -10762,146 +10866,35 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="A51:P51"/>
-    <mergeCell ref="U94:X94"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="Q23:X23"/>
-    <mergeCell ref="Q93:X93"/>
-    <mergeCell ref="A121:P121"/>
-    <mergeCell ref="Q121:X121"/>
-    <mergeCell ref="Q51:X51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="U150:X150"/>
-    <mergeCell ref="A120:X120"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="E122:H122"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="U122:X122"/>
-    <mergeCell ref="A148:X148"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="E150:H150"/>
-    <mergeCell ref="M150:P150"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="Q122:T122"/>
-    <mergeCell ref="Q150:T150"/>
-    <mergeCell ref="A149:P149"/>
-    <mergeCell ref="Q149:X149"/>
-    <mergeCell ref="A134:X134"/>
-    <mergeCell ref="A135:P135"/>
-    <mergeCell ref="Q135:X135"/>
-    <mergeCell ref="A128:P128"/>
-    <mergeCell ref="Q128:X128"/>
-    <mergeCell ref="U129:X129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="A127:X127"/>
-    <mergeCell ref="M129:P129"/>
-    <mergeCell ref="Q129:T129"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="A99:X99"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="Q100:X100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="M101:P101"/>
-    <mergeCell ref="Q101:T101"/>
-    <mergeCell ref="U101:X101"/>
-    <mergeCell ref="A106:X106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="Q107:X107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="E108:H108"/>
-    <mergeCell ref="U66:X66"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="A15:X15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="Q108:T108"/>
-    <mergeCell ref="U108:X108"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="A78:X78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="Q79:X79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="U80:X80"/>
-    <mergeCell ref="A64:X64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="Q65:X65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="E143:H143"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="M143:P143"/>
-    <mergeCell ref="Q143:T143"/>
-    <mergeCell ref="U143:X143"/>
-    <mergeCell ref="A113:X113"/>
-    <mergeCell ref="A114:P114"/>
-    <mergeCell ref="Q114:X114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="Q115:T115"/>
-    <mergeCell ref="U115:X115"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="E136:H136"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="Q136:T136"/>
-    <mergeCell ref="U136:X136"/>
-    <mergeCell ref="A141:X141"/>
-    <mergeCell ref="A142:P142"/>
-    <mergeCell ref="Q142:X142"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="A57:X57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="Q58:X58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="A71:X71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="Q72:X72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="U73:X73"/>
+    <mergeCell ref="A85:X85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="Q86:X86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="Q87:T87"/>
+    <mergeCell ref="U87:X87"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A32:L32">
